--- a/PetriNetCode/InputFiles/Insp_Metal_Det_Ind.xlsx
+++ b/PetriNetCode/InputFiles/Insp_Metal_Det_Ind.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Place_Details" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,6 +589,86 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>0</v>
       </c>
     </row>
@@ -603,7 +683,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -982,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1043,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1084,10 +1164,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1125,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1166,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1207,10 +1287,10 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1248,10 +1328,10 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1289,10 +1369,10 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1330,10 +1410,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1371,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1412,10 +1492,10 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1450,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="Y156" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -1873,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -1881,7 +1961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
@@ -1889,17 +1969,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
@@ -1933,8 +2013,38 @@
       <c r="K70">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>23</v>
+      </c>
+      <c r="M70">
+        <v>24</v>
+      </c>
+      <c r="N70">
+        <v>25</v>
+      </c>
+      <c r="O70">
+        <v>26</v>
+      </c>
+      <c r="P70">
+        <v>27</v>
+      </c>
+      <c r="Q70">
+        <v>28</v>
+      </c>
+      <c r="R70">
+        <v>29</v>
+      </c>
+      <c r="S70">
+        <v>30</v>
+      </c>
+      <c r="T70">
+        <v>31</v>
+      </c>
+      <c r="U70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -1968,13 +2078,43 @@
       <c r="K71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -1982,7 +2122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -1990,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -1998,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
@@ -2006,32 +2146,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
@@ -2042,7 +2182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10</v>
       </c>
@@ -2053,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10</v>
       </c>
@@ -2066,8 +2206,11 @@
       <c r="D84">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2080,33 +2223,42 @@
       <c r="D85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11</v>
       </c>
@@ -2117,7 +2269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>11</v>
       </c>
@@ -2128,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>11</v>
       </c>
@@ -2141,8 +2293,11 @@
       <c r="D93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>11</v>
       </c>
@@ -2155,33 +2310,42 @@
       <c r="D94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12</v>
       </c>
@@ -2192,7 +2356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>12</v>
       </c>
@@ -2203,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>12</v>
       </c>
@@ -2216,8 +2380,11 @@
       <c r="D102">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
@@ -2230,33 +2397,42 @@
       <c r="D103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>13</v>
       </c>
@@ -2267,7 +2443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>13</v>
       </c>
@@ -2278,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>13</v>
       </c>
@@ -2291,8 +2467,11 @@
       <c r="D111">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>13</v>
       </c>
@@ -2305,33 +2484,42 @@
       <c r="D112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14</v>
       </c>
@@ -2342,7 +2530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14</v>
       </c>
@@ -2353,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14</v>
       </c>
@@ -2366,8 +2554,11 @@
       <c r="D120">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>14</v>
       </c>
@@ -2380,33 +2571,42 @@
       <c r="D121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>15</v>
       </c>
@@ -2417,7 +2617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>15</v>
       </c>
@@ -2428,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>15</v>
       </c>
@@ -2441,8 +2641,11 @@
       <c r="D129">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>15</v>
       </c>
@@ -2455,33 +2658,42 @@
       <c r="D130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>16</v>
       </c>
@@ -2492,7 +2704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>16</v>
       </c>
@@ -2503,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>16</v>
       </c>
@@ -2516,8 +2728,11 @@
       <c r="D138">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>16</v>
       </c>
@@ -2530,33 +2745,42 @@
       <c r="D139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>17</v>
       </c>
@@ -2567,7 +2791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>17</v>
       </c>
@@ -2578,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>17</v>
       </c>
@@ -2591,8 +2815,11 @@
       <c r="D147">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>17</v>
       </c>
@@ -2605,33 +2832,42 @@
       <c r="D148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>18</v>
       </c>
@@ -2642,7 +2878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>18</v>
       </c>
@@ -2653,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
@@ -2666,8 +2902,11 @@
       <c r="D156">
         <v>21</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>18</v>
       </c>
@@ -2680,33 +2919,42 @@
       <c r="D157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>18</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>19</v>
       </c>
@@ -2717,7 +2965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>19</v>
       </c>
@@ -2728,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>19</v>
       </c>
@@ -2741,8 +2989,11 @@
       <c r="D165">
         <v>22</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>19</v>
       </c>
@@ -2755,28 +3006,37 @@
       <c r="D166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>19</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>19</v>
       </c>
